--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Jag2-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Jag2-Notch2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.80984</v>
+        <v>15.953202</v>
       </c>
       <c r="H2">
-        <v>53.42952</v>
+        <v>47.859606</v>
       </c>
       <c r="I2">
-        <v>0.765729102759791</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="J2">
-        <v>0.7657291027597911</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N2">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O2">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P2">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q2">
-        <v>37.74885230861332</v>
+        <v>35.59340169156</v>
       </c>
       <c r="R2">
-        <v>339.73967077752</v>
+        <v>320.34061522404</v>
       </c>
       <c r="S2">
-        <v>0.01346730886560945</v>
+        <v>0.00992496448184348</v>
       </c>
       <c r="T2">
-        <v>0.01346730886560945</v>
+        <v>0.00992496448184348</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.80984</v>
+        <v>15.953202</v>
       </c>
       <c r="H3">
-        <v>53.42952</v>
+        <v>47.859606</v>
       </c>
       <c r="I3">
-        <v>0.765729102759791</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="J3">
-        <v>0.7657291027597911</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>68.456577</v>
       </c>
       <c r="O3">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P3">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q3">
-        <v>406.40022777256</v>
+        <v>364.033867036518</v>
       </c>
       <c r="R3">
-        <v>3657.60204995304</v>
+        <v>3276.304803328662</v>
       </c>
       <c r="S3">
-        <v>0.1449876501071337</v>
+        <v>0.1015082298633542</v>
       </c>
       <c r="T3">
-        <v>0.1449876501071337</v>
+        <v>0.1015082298633542</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.80984</v>
+        <v>15.953202</v>
       </c>
       <c r="H4">
-        <v>53.42952</v>
+        <v>47.859606</v>
       </c>
       <c r="I4">
-        <v>0.765729102759791</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="J4">
-        <v>0.7657291027597911</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N4">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O4">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P4">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q4">
-        <v>600.0407942748799</v>
+        <v>925.6327247321699</v>
       </c>
       <c r="R4">
-        <v>5400.367148473919</v>
+        <v>8330.694522589529</v>
       </c>
       <c r="S4">
-        <v>0.2140710038652371</v>
+        <v>0.2581060387486707</v>
       </c>
       <c r="T4">
-        <v>0.2140710038652371</v>
+        <v>0.2581060387486707</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.80984</v>
+        <v>15.953202</v>
       </c>
       <c r="H5">
-        <v>53.42952</v>
+        <v>47.859606</v>
       </c>
       <c r="I5">
-        <v>0.765729102759791</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="J5">
-        <v>0.7657291027597911</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N5">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O5">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P5">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q5">
-        <v>212.6992799760266</v>
+        <v>241.999550544414</v>
       </c>
       <c r="R5">
-        <v>1914.29351978424</v>
+        <v>2177.995954899726</v>
       </c>
       <c r="S5">
-        <v>0.07588275467321394</v>
+        <v>0.06747983698183375</v>
       </c>
       <c r="T5">
-        <v>0.07588275467321394</v>
+        <v>0.06747983698183375</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.80984</v>
+        <v>15.953202</v>
       </c>
       <c r="H6">
-        <v>53.42952</v>
+        <v>47.859606</v>
       </c>
       <c r="I6">
-        <v>0.765729102759791</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="J6">
-        <v>0.7657291027597911</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N6">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O6">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P6">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q6">
-        <v>889.4486995727999</v>
+        <v>659.9375588753819</v>
       </c>
       <c r="R6">
-        <v>8005.0382961552</v>
+        <v>5939.438029878437</v>
       </c>
       <c r="S6">
-        <v>0.3173203852485969</v>
+        <v>0.1840188495842974</v>
       </c>
       <c r="T6">
-        <v>0.3173203852485969</v>
+        <v>0.1840188495842974</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7397413333333334</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H7">
         <v>2.219224</v>
       </c>
       <c r="I7">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="J7">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N7">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O7">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P7">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q7">
-        <v>1.567918989647111</v>
+        <v>1.650446752017778</v>
       </c>
       <c r="R7">
-        <v>14.111270906824</v>
+        <v>14.85402076816</v>
       </c>
       <c r="S7">
-        <v>0.0005593719548663973</v>
+        <v>0.0004602152257010768</v>
       </c>
       <c r="T7">
-        <v>0.0005593719548663973</v>
+        <v>0.0004602152257010768</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7397413333333334</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H8">
         <v>2.219224</v>
       </c>
       <c r="I8">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="J8">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>68.456577</v>
       </c>
       <c r="O8">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P8">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q8">
         <v>16.88005318180533</v>
@@ -948,10 +948,10 @@
         <v>151.920478636248</v>
       </c>
       <c r="S8">
-        <v>0.006022140435125636</v>
+        <v>0.004706881621847709</v>
       </c>
       <c r="T8">
-        <v>0.006022140435125635</v>
+        <v>0.004706881621847708</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7397413333333334</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H9">
         <v>2.219224</v>
       </c>
       <c r="I9">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="J9">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N9">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O9">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P9">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q9">
-        <v>24.92301880372266</v>
+        <v>42.92108794023554</v>
       </c>
       <c r="R9">
-        <v>224.307169233504</v>
+        <v>386.2897914621199</v>
       </c>
       <c r="S9">
-        <v>0.008891554883551769</v>
+        <v>0.01196823717554173</v>
       </c>
       <c r="T9">
-        <v>0.008891554883551768</v>
+        <v>0.01196823717554173</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7397413333333334</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H10">
         <v>2.219224</v>
       </c>
       <c r="I10">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="J10">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N10">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O10">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P10">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q10">
-        <v>8.834579590187555</v>
+        <v>11.22138804396711</v>
       </c>
       <c r="R10">
-        <v>79.511216311688</v>
+        <v>100.992492395704</v>
       </c>
       <c r="S10">
-        <v>0.003151831241547904</v>
+        <v>0.003129003480433437</v>
       </c>
       <c r="T10">
-        <v>0.003151831241547904</v>
+        <v>0.003129003480433437</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7397413333333334</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H11">
         <v>2.219224</v>
       </c>
       <c r="I11">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="J11">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N11">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O11">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P11">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q11">
-        <v>36.94373261936</v>
+        <v>30.60094705246133</v>
       </c>
       <c r="R11">
-        <v>332.49359357424</v>
+        <v>275.408523472152</v>
       </c>
       <c r="S11">
-        <v>0.01318007376133891</v>
+        <v>0.008532854354251532</v>
       </c>
       <c r="T11">
-        <v>0.01318007376133891</v>
+        <v>0.008532854354251532</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.032291333333333</v>
+        <v>5.607355000000001</v>
       </c>
       <c r="H12">
-        <v>3.096874</v>
+        <v>16.822065</v>
       </c>
       <c r="I12">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="J12">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N12">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O12">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P12">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q12">
-        <v>2.187993439663777</v>
+        <v>12.51064450523334</v>
       </c>
       <c r="R12">
-        <v>19.691940956974</v>
+        <v>112.5958005471</v>
       </c>
       <c r="S12">
-        <v>0.0007805901807816242</v>
+        <v>0.00348850338709981</v>
       </c>
       <c r="T12">
-        <v>0.0007805901807816242</v>
+        <v>0.003488503387099809</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.032291333333333</v>
+        <v>5.607355000000001</v>
       </c>
       <c r="H13">
-        <v>3.096874</v>
+        <v>16.822065</v>
       </c>
       <c r="I13">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="J13">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>68.456577</v>
       </c>
       <c r="O13">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P13">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q13">
-        <v>23.55571038225533</v>
+        <v>127.953443107945</v>
       </c>
       <c r="R13">
-        <v>212.001393440298</v>
+        <v>1151.580987971505</v>
       </c>
       <c r="S13">
-        <v>0.00840375290547023</v>
+        <v>0.03567889883582172</v>
       </c>
       <c r="T13">
-        <v>0.008403752905470229</v>
+        <v>0.0356788988358217</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.032291333333333</v>
+        <v>5.607355000000001</v>
       </c>
       <c r="H14">
-        <v>3.096874</v>
+        <v>16.822065</v>
       </c>
       <c r="I14">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="J14">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N14">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O14">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P14">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q14">
-        <v>34.77947649032266</v>
+        <v>325.3485593168417</v>
       </c>
       <c r="R14">
-        <v>313.0152884129039</v>
+        <v>2928.137033851575</v>
       </c>
       <c r="S14">
-        <v>0.01240795212130209</v>
+        <v>0.0907211095871257</v>
       </c>
       <c r="T14">
-        <v>0.01240795212130208</v>
+        <v>0.09072110958712569</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.032291333333333</v>
+        <v>5.607355000000001</v>
       </c>
       <c r="H15">
-        <v>3.096874</v>
+        <v>16.822065</v>
       </c>
       <c r="I15">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="J15">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N15">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O15">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P15">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q15">
-        <v>12.32844446247089</v>
+        <v>85.05987636481835</v>
       </c>
       <c r="R15">
-        <v>110.956000162238</v>
+        <v>765.5388872833651</v>
       </c>
       <c r="S15">
-        <v>0.004398305094184914</v>
+        <v>0.02371833574847673</v>
       </c>
       <c r="T15">
-        <v>0.004398305094184913</v>
+        <v>0.02371833574847673</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.032291333333333</v>
+        <v>5.607355000000001</v>
       </c>
       <c r="H16">
-        <v>3.096874</v>
+        <v>16.822065</v>
       </c>
       <c r="I16">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="J16">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N16">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O16">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P16">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q16">
-        <v>51.55409504036</v>
+        <v>231.959964554305</v>
       </c>
       <c r="R16">
-        <v>463.98685536324</v>
+        <v>2087.639680988745</v>
       </c>
       <c r="S16">
-        <v>0.01839247761811005</v>
+        <v>0.06468037051814163</v>
       </c>
       <c r="T16">
-        <v>0.01839247761811005</v>
+        <v>0.06468037051814163</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.512380666666666</v>
+        <v>1.453021</v>
       </c>
       <c r="H17">
-        <v>4.537141999999999</v>
+        <v>4.359063</v>
       </c>
       <c r="I17">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="J17">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N17">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O17">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P17">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q17">
-        <v>3.205566946160221</v>
+        <v>3.241854526713333</v>
       </c>
       <c r="R17">
-        <v>28.850102515442</v>
+        <v>29.17669074042</v>
       </c>
       <c r="S17">
-        <v>0.001143620468256668</v>
+        <v>0.000903967856507596</v>
       </c>
       <c r="T17">
-        <v>0.001143620468256668</v>
+        <v>0.0009039678565075961</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.512380666666666</v>
+        <v>1.453021</v>
       </c>
       <c r="H18">
-        <v>4.537141999999999</v>
+        <v>4.359063</v>
       </c>
       <c r="I18">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="J18">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>68.456577</v>
       </c>
       <c r="O18">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P18">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q18">
-        <v>34.51080118699266</v>
+        <v>33.156281323039</v>
       </c>
       <c r="R18">
-        <v>310.597210682934</v>
+        <v>298.406531907351</v>
       </c>
       <c r="S18">
-        <v>0.01231209931854864</v>
+        <v>0.009245390966921925</v>
       </c>
       <c r="T18">
-        <v>0.01231209931854864</v>
+        <v>0.009245390966921924</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.512380666666666</v>
+        <v>1.453021</v>
       </c>
       <c r="H19">
-        <v>4.537141999999999</v>
+        <v>4.359063</v>
       </c>
       <c r="I19">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="J19">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N19">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O19">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P19">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q19">
-        <v>50.95442162718132</v>
+        <v>84.30682362845165</v>
       </c>
       <c r="R19">
-        <v>458.5897946446319</v>
+        <v>758.7614126560649</v>
       </c>
       <c r="S19">
-        <v>0.01817853768140027</v>
+        <v>0.02350835240026625</v>
       </c>
       <c r="T19">
-        <v>0.01817853768140027</v>
+        <v>0.02350835240026625</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.512380666666666</v>
+        <v>1.453021</v>
       </c>
       <c r="H20">
-        <v>4.537141999999999</v>
+        <v>4.359063</v>
       </c>
       <c r="I20">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="J20">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N20">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O20">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P20">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q20">
-        <v>18.06205327221711</v>
+        <v>22.04137006048033</v>
       </c>
       <c r="R20">
-        <v>162.558479449954</v>
+        <v>198.372330544323</v>
       </c>
       <c r="S20">
-        <v>0.006443831674017196</v>
+        <v>0.006146077772423433</v>
       </c>
       <c r="T20">
-        <v>0.006443831674017195</v>
+        <v>0.006146077772423434</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.512380666666666</v>
+        <v>1.453021</v>
       </c>
       <c r="H21">
-        <v>4.537141999999999</v>
+        <v>4.359063</v>
       </c>
       <c r="I21">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="J21">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N21">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O21">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P21">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q21">
-        <v>75.53043807387999</v>
+        <v>60.10725193191099</v>
       </c>
       <c r="R21">
-        <v>679.7739426649199</v>
+        <v>540.965267387199</v>
       </c>
       <c r="S21">
-        <v>0.02694629574376842</v>
+        <v>0.01676047559868078</v>
       </c>
       <c r="T21">
-        <v>0.02694629574376842</v>
+        <v>0.01676047559868078</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.164416</v>
+        <v>1.934648333333333</v>
       </c>
       <c r="H22">
-        <v>6.493247999999999</v>
+        <v>5.803945</v>
       </c>
       <c r="I22">
-        <v>0.0930584621579383</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="J22">
-        <v>0.09305846215793831</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N22">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O22">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P22">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q22">
-        <v>4.587588654271999</v>
+        <v>4.316419691811111</v>
       </c>
       <c r="R22">
-        <v>41.288297888448</v>
+        <v>38.8477772263</v>
       </c>
       <c r="S22">
-        <v>0.00163667156951814</v>
+        <v>0.001203602636836857</v>
       </c>
       <c r="T22">
-        <v>0.00163667156951814</v>
+        <v>0.001203602636836857</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.164416</v>
+        <v>1.934648333333333</v>
       </c>
       <c r="H23">
-        <v>6.493247999999999</v>
+        <v>5.803945</v>
       </c>
       <c r="I23">
-        <v>0.0930584621579383</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="J23">
-        <v>0.09305846215793831</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>68.456577</v>
       </c>
       <c r="O23">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P23">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q23">
-        <v>49.38950352134399</v>
+        <v>44.14646753291833</v>
       </c>
       <c r="R23">
-        <v>444.5055316920959</v>
+        <v>397.318207796265</v>
       </c>
       <c r="S23">
-        <v>0.01762023632409286</v>
+        <v>0.01230992547607403</v>
       </c>
       <c r="T23">
-        <v>0.01762023632409286</v>
+        <v>0.01230992547607403</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.164416</v>
+        <v>1.934648333333333</v>
       </c>
       <c r="H24">
-        <v>6.493247999999999</v>
+        <v>5.803945</v>
       </c>
       <c r="I24">
-        <v>0.0930584621579383</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="J24">
-        <v>0.09305846215793831</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N24">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O24">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P24">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q24">
-        <v>72.92249092531198</v>
+        <v>112.2516851589972</v>
       </c>
       <c r="R24">
-        <v>656.3024183278078</v>
+        <v>1010.265166430975</v>
       </c>
       <c r="S24">
-        <v>0.02601588256278445</v>
+        <v>0.03130057637886016</v>
       </c>
       <c r="T24">
-        <v>0.02601588256278445</v>
+        <v>0.03130057637886016</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.164416</v>
+        <v>1.934648333333333</v>
       </c>
       <c r="H25">
-        <v>6.493247999999999</v>
+        <v>5.803945</v>
       </c>
       <c r="I25">
-        <v>0.0930584621579383</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="J25">
-        <v>0.09305846215793831</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N25">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O25">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P25">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q25">
-        <v>25.849178025664</v>
+        <v>29.34733899364944</v>
       </c>
       <c r="R25">
-        <v>232.642602230976</v>
+        <v>264.126050942845</v>
       </c>
       <c r="S25">
-        <v>0.009221972142297686</v>
+        <v>0.008183294748634769</v>
       </c>
       <c r="T25">
-        <v>0.009221972142297686</v>
+        <v>0.008183294748634769</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.164416</v>
+        <v>1.934648333333333</v>
       </c>
       <c r="H26">
-        <v>6.493247999999999</v>
+        <v>5.803945</v>
       </c>
       <c r="I26">
-        <v>0.0930584621579383</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="J26">
-        <v>0.09305846215793831</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N26">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O26">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P26">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q26">
-        <v>108.09400851072</v>
+        <v>80.03077365799832</v>
       </c>
       <c r="R26">
-        <v>972.84607659648</v>
+        <v>720.2769629219849</v>
       </c>
       <c r="S26">
-        <v>0.03856369955924517</v>
+        <v>0.02231600657035361</v>
       </c>
       <c r="T26">
-        <v>0.03856369955924518</v>
+        <v>0.02231600657035361</v>
       </c>
     </row>
   </sheetData>
